--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_NguyenCuong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_NguyenCuong.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang3\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang3\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
+    <sheet name="TG102V" sheetId="19" r:id="rId1"/>
     <sheet name="TongThang" sheetId="25" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
   <si>
     <t>STT</t>
   </si>
@@ -216,9 +216,6 @@
     <t>Lô 2-21</t>
   </si>
   <si>
-    <t>Qmaps</t>
-  </si>
-  <si>
     <t>XỬ LÝ THIẾT BỊ BẢO HÀNH THÁNG 03 NĂM 2021</t>
   </si>
   <si>
@@ -228,25 +225,37 @@
     <t>BT</t>
   </si>
   <si>
-    <t>Thể</t>
-  </si>
-  <si>
     <t>Nguyễn Cương</t>
   </si>
   <si>
-    <t>Thiết bị treo</t>
-  </si>
-  <si>
-    <t>Nạp lại FW</t>
-  </si>
-  <si>
-    <t>125.212.203.114,15959</t>
-  </si>
-  <si>
-    <t>LE.2.00.---28.200624</t>
-  </si>
-  <si>
-    <t>Thiết bị hết hạn DV</t>
+    <t>DL Nguyen Cuong</t>
+  </si>
+  <si>
+    <t>18/03/2021</t>
+  </si>
+  <si>
+    <t>TG102V</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15555</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>19/03/2021</t>
   </si>
 </sst>
 </file>
@@ -619,6 +628,15 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -647,15 +665,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -964,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -997,43 +1006,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="A1" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="69"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1078,58 +1087,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="62" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1154,77 +1163,77 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="42">
-        <v>44260</v>
-      </c>
-      <c r="C6" s="42">
-        <v>44260</v>
+      <c r="B6" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>74</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E6" s="44">
-        <v>867717030421011</v>
+        <v>868345035605278</v>
       </c>
       <c r="F6" s="56"/>
       <c r="G6" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="H6" s="43"/>
       <c r="I6" s="57" t="s">
         <v>69</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="45" t="s">
         <v>70</v>
       </c>
+      <c r="K6" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="45"/>
       <c r="M6" s="45" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N6" s="47"/>
       <c r="O6" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P6" s="45" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R6" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="S6" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="T6" s="13"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1255,7 +1264,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="60"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1284,7 +1293,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="60"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1313,7 +1322,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1342,7 +1351,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1371,7 +1380,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="60"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1400,7 +1409,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="59" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1431,7 +1440,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="60"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1460,7 +1469,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1489,7 +1498,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="60"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1518,7 +1527,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="61"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1978,7 +1987,7 @@
       </c>
       <c r="V31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="16"/>
     </row>
@@ -2074,7 +2083,7 @@
       </c>
       <c r="V34" s="11">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="16"/>
     </row>
@@ -2749,11 +2758,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2767,6 +2771,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2778,7 +2787,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:V1"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2810,43 +2819,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="A1" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="69"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -2891,58 +2900,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="62" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -2967,23 +2976,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3009,7 +3018,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3040,7 +3049,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="60"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3069,7 +3078,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="60"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3098,7 +3107,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3127,7 +3136,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3156,7 +3165,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="60"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3185,7 +3194,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="59" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3216,7 +3225,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="60"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3245,7 +3254,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3274,7 +3283,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="60"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3303,7 +3312,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="61"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4534,6 +4543,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4545,13 +4561,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
